--- a/TrajectoryCalc.xlsx
+++ b/TrajectoryCalc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Robotics\MechTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F27AB-D5A7-4076-8822-C303E6A8CD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC7CCF-9162-489D-AF8B-5E12C19AA092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="816" windowWidth="16104" windowHeight="11940" activeTab="1" xr2:uid="{6ABD8E07-427F-4B5C-BF84-79A4A7BF8CB3}"/>
+    <workbookView xWindow="732" yWindow="2064" windowWidth="17280" windowHeight="9468" activeTab="1" xr2:uid="{6ABD8E07-427F-4B5C-BF84-79A4A7BF8CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>Trajectory Calculator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <r>
       <t>y = xtan</t>
@@ -66,20 +63,6 @@
     <t>velocity (v) =</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">wheel diameter * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∏ * motor speed</t>
-    </r>
-  </si>
-  <si>
     <t>x =</t>
   </si>
   <si>
@@ -93,9 +76,6 @@
   </si>
   <si>
     <t>feet</t>
-  </si>
-  <si>
-    <t>trajectory Formular:</t>
   </si>
   <si>
     <t>free throw line to hoop:</t>
@@ -227,10 +207,42 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Suggested Values</t>
-  </si>
-  <si>
-    <t>Rev 1.0</t>
+    <t>Rev 1.1</t>
+  </si>
+  <si>
+    <t>gearbox ratio =</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>drive hex gear =</t>
+  </si>
+  <si>
+    <t>belt hex gear =</t>
+  </si>
+  <si>
+    <t>Values That Work</t>
+  </si>
+  <si>
+    <t>Trajectory Formular:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wheel diameter * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∏ * revolutions/sec</t>
+    </r>
+  </si>
+  <si>
+    <t>Trajectory Calculator With Gears</t>
   </si>
 </sst>
 </file>
@@ -238,8 +250,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -299,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -357,11 +369,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -374,7 +410,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -384,9 +420,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,6 +539,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ball Trajectory</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -500,6 +603,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Column2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -514,7 +628,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$36</c:f>
+              <c:f>Sheet1!$B$24:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -571,7 +685,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$36</c:f>
+              <c:f>Sheet1!$C$24:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -579,49 +693,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2804933197540866</c:v>
+                  <c:v>3.2808967671452756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1875959698642724</c:v>
+                  <c:v>6.1892097594290263</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7213079503305551</c:v>
+                  <c:v>8.7249389768512557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.881629261152938</c:v>
+                  <c:v>10.888084419411959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.668559902331413</c:v>
+                  <c:v>12.678646087111135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.082099873865996</c:v>
+                  <c:v>14.096623979948792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.122249175756666</c:v>
+                  <c:v>15.142018097924918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.789007808003447</c:v>
+                  <c:v>15.814828441039529</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.082375770606316</c:v>
+                  <c:v>16.115055009292607</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.002353063565284</c:v>
+                  <c:v>16.042697802684163</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.548939686880361</c:v>
+                  <c:v>15.597756821214206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.722135640551521</c:v>
+                  <c:v>14.780232064882709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.521940924578786</c:v>
+                  <c:v>13.590123533689697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.948355538962145</c:v>
+                  <c:v>12.027431227635152</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.001379483701617</c:v>
+                  <c:v>10.092155146719097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,150 +744,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-500B-4183-9B83-2F50F7E959DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$21:$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$21:$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-500B-4183-9B83-2F50F7E959DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1620,13 +1590,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1656,10 +1626,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{828D6FDC-FD5E-4572-A62B-6D0992FA8EF2}" name="Table1" displayName="Table1" ref="B20:C36" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="B20:C36" xr:uid="{828D6FDC-FD5E-4572-A62B-6D0992FA8EF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{828D6FDC-FD5E-4572-A62B-6D0992FA8EF2}" name="Table1" displayName="Table1" ref="B23:C39" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B23:C39" xr:uid="{828D6FDC-FD5E-4572-A62B-6D0992FA8EF2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C310C14F-B3FF-4FCF-A5A2-4D910AED7488}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C310C14F-B3FF-4FCF-A5A2-4D910AED7488}" name="Column1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F304FCA2-60A5-43A4-A1F0-14CCCA4D4980}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1977,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A5312-1A14-4DEA-9131-BA5225CB0B35}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1992,54 +1962,54 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="8">
         <f>PI()</f>
@@ -2049,285 +2019,374 @@
     <row r="7" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="11">
         <f xml:space="preserve"> 15</f>
         <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D9" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="11">
         <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="4"/>
+      <c r="E10" s="14"/>
+    </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="9">
         <v>6</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="12">
-        <f>(E12/12)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="9">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="16">
         <v>6</v>
       </c>
-      <c r="L12" s="9">
-        <v>4</v>
+      <c r="J12" s="16">
+        <v>6</v>
+      </c>
+      <c r="K12" s="16">
+        <v>6</v>
+      </c>
+      <c r="L12" s="16">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" s="9">
-        <v>1320</v>
+        <v>3700</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4930</v>
+      </c>
+      <c r="J13" s="9">
+        <v>4250</v>
       </c>
       <c r="K13" s="9">
-        <v>1320</v>
+        <v>3960</v>
       </c>
       <c r="L13" s="9">
-        <v>1980</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="I14" s="12">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J14" s="12">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="12">
+        <f>I14</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="15">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="15">
+        <v>45</v>
+      </c>
+      <c r="J15" s="9">
+        <v>56</v>
+      </c>
+      <c r="K15" s="9">
+        <v>56</v>
+      </c>
+      <c r="L15" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="15">
+        <v>56</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="15">
+        <v>56</v>
+      </c>
+      <c r="J16" s="9">
+        <v>45</v>
+      </c>
+      <c r="K16" s="9">
+        <v>56</v>
+      </c>
+      <c r="L16" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9">
+        <v>75</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9">
+        <v>75</v>
+      </c>
+      <c r="J17" s="9">
+        <v>75</v>
+      </c>
+      <c r="K17" s="9">
+        <v>75</v>
+      </c>
+      <c r="L17" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <f>(E12/12)*PI()*E13/60* (E15/E16)*E14</f>
+        <v>34.594919102030467</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="9">
-        <v>75</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="9">
-        <v>75</v>
-      </c>
-      <c r="L14" s="9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7">
-        <f>H12*PI()*E13/60</f>
-        <v>34.557519189487721</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((I4*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>3.2804933197540866</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
+      <c r="C25" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((I4*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>3.2808967671452756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>6.1875959698642724</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
+      <c r="C26" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>6.1892097594290263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>8.7213079503305551</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
+      <c r="C27" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>8.7249389768512557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
         <v>4</v>
       </c>
-      <c r="C25" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>10.881629261152938</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
+      <c r="C28" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>10.888084419411959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
         <v>5</v>
       </c>
-      <c r="C26" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>12.668559902331413</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
+      <c r="C29" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>12.678646087111135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
         <v>6</v>
       </c>
-      <c r="C27" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>14.082099873865996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
+      <c r="C30" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>14.096623979948792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
         <v>7</v>
       </c>
-      <c r="C28" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>15.122249175756666</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
+      <c r="C31" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>15.142018097924918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
         <v>8</v>
       </c>
-      <c r="C29" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>15.789007808003447</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>16.082375770606316</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>10</v>
-      </c>
-      <c r="C31" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>16.002353063565284</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>11</v>
-      </c>
       <c r="C32" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>15.548939686880361</v>
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>15.814828441039529</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>14.722135640551521</v>
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>16.115055009292607</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C34" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>13.521940924578786</v>
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>16.042697802684163</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C35" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>11.948355538962145</v>
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>15.597756821214206</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
+        <v>12</v>
+      </c>
+      <c r="C36" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>14.780232064882709</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>13</v>
+      </c>
+      <c r="C37" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>13.590123533689697</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>14</v>
+      </c>
+      <c r="C38" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>12.027431227635152</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
         <v>15</v>
       </c>
-      <c r="C36" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E14)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B16*0.3048)^2*COS(RADIANS(E14))^2)))*3.048</f>
-        <v>10.001379483701617</v>
+      <c r="C39" s="6">
+        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
+        <v>10.092155146719097</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/TrajectoryCalc.xlsx
+++ b/TrajectoryCalc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Robotics\MechTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Robotics\Pre2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC7CCF-9162-489D-AF8B-5E12C19AA092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA37ED-AA8E-4A07-B341-5BE12D4F9EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="2064" windowWidth="17280" windowHeight="9468" activeTab="1" xr2:uid="{6ABD8E07-427F-4B5C-BF84-79A4A7BF8CB3}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     </r>
   </si>
   <si>
-    <t>Rev 1.1</t>
-  </si>
-  <si>
     <t>gearbox ratio =</t>
   </si>
   <si>
@@ -244,14 +241,18 @@
   <si>
     <t>Trajectory Calculator With Gears</t>
   </si>
+  <si>
+    <t>Rev 1.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -397,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,7 +410,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -431,10 +431,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,49 +696,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2808967671452756</c:v>
+                  <c:v>3.5280981909140099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1892097594290263</c:v>
+                  <c:v>6.6482911485182843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7249389768512557</c:v>
+                  <c:v>9.3605788728128232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.888084419411959</c:v>
+                  <c:v>11.664961363797627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.678646087111135</c:v>
+                  <c:v>13.561438621472696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.096623979948792</c:v>
+                  <c:v>15.050010645838029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.142018097924918</c:v>
+                  <c:v>16.130677436893627</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.814828441039529</c:v>
+                  <c:v>16.803438994639489</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.115055009292607</c:v>
+                  <c:v>17.068295319075613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.042697802684163</c:v>
+                  <c:v>16.925246410202011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.597756821214206</c:v>
+                  <c:v>16.374292268018664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.780232064882709</c:v>
+                  <c:v>15.415432892525583</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.590123533689697</c:v>
+                  <c:v>14.048668283722769</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.027431227635152</c:v>
+                  <c:v>12.273998441610217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.092155146719097</c:v>
+                  <c:v>10.091423366187939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,31 +1950,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A5312-1A14-4DEA-9131-BA5225CB0B35}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -1980,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="4">
-        <v>32</v>
+        <v>32.173999999999999</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
@@ -2006,12 +2010,12 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -2021,14 +2025,14 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f xml:space="preserve"> 15</f>
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2036,13 +2040,13 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2051,41 +2055,41 @@
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="13"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>6</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="16">
+      <c r="H12" s="18"/>
+      <c r="I12" s="15">
         <v>6</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>6</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>6</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>6</v>
       </c>
     </row>
@@ -2093,93 +2097,93 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="9">
-        <v>3700</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="8">
+        <v>3670</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="9">
-        <v>4930</v>
-      </c>
-      <c r="J13" s="9">
-        <v>4250</v>
-      </c>
-      <c r="K13" s="9">
-        <v>3960</v>
-      </c>
-      <c r="L13" s="9">
-        <v>3700</v>
+      <c r="I13" s="8">
+        <v>4890</v>
+      </c>
+      <c r="J13" s="8">
+        <v>4210</v>
+      </c>
+      <c r="K13" s="8">
+        <v>3930</v>
+      </c>
+      <c r="L13" s="8">
+        <v>3670</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="I14" s="12">
+      <c r="F14" s="8"/>
+      <c r="I14" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <f>I14</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="15">
+        <v>29</v>
+      </c>
+      <c r="E15" s="14">
         <v>20</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="F15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="14">
         <v>45</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>56</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>56</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="15">
+        <v>30</v>
+      </c>
+      <c r="E16" s="14">
         <v>56</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="14">
         <v>56</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>45</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>56</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>56</v>
       </c>
     </row>
@@ -2187,22 +2191,22 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>75</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>75</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>75</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>75</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>75</v>
       </c>
     </row>
@@ -2211,9 +2215,9 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="22">
         <f>(E12/12)*PI()*E13/60* (E15/E16)*E14</f>
-        <v>34.594919102030467</v>
+        <v>34.314419757959939</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -2250,8 +2254,8 @@
         <v>1</v>
       </c>
       <c r="C25" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((I4*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>3.2808967671452756</v>
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>3.5280981909140099</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2259,8 +2263,8 @@
         <v>2</v>
       </c>
       <c r="C26" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>6.1892097594290263</v>
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>6.6482911485182843</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2268,8 +2272,8 @@
         <v>3</v>
       </c>
       <c r="C27" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>8.7249389768512557</v>
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>9.3605788728128232</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2277,8 +2281,8 @@
         <v>4</v>
       </c>
       <c r="C28" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>10.888084419411959</v>
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>11.664961363797627</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2286,8 +2290,8 @@
         <v>5</v>
       </c>
       <c r="C29" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>12.678646087111135</v>
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>13.561438621472696</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2295,8 +2299,8 @@
         <v>6</v>
       </c>
       <c r="C30" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>14.096623979948792</v>
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>15.050010645838029</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2304,8 +2308,8 @@
         <v>7</v>
       </c>
       <c r="C31" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>15.142018097924918</v>
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>16.130677436893627</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2313,72 +2317,78 @@
         <v>8</v>
       </c>
       <c r="C32" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>15.814828441039529</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>16.803438994639489</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>16.115055009292607</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>17.068295319075613</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>10</v>
       </c>
       <c r="C34" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>16.042697802684163</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>16.925246410202011</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>11</v>
       </c>
       <c r="C35" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>15.597756821214206</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>16.374292268018664</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>12</v>
       </c>
       <c r="C36" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>14.780232064882709</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>15.415432892525583</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>13</v>
       </c>
       <c r="C37" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>13.590123533689697</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>14.048668283722769</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>14</v>
       </c>
       <c r="C38" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>12.027431227635152</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>12.273998441610217</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>15</v>
       </c>
       <c r="C39" s="6">
-        <f>(Table1[[#This Row],[Column1]]*0.3048*TAN(RADIANS(E17)) - ((9.8*(Table1[[#This Row],[Column1]]*0.3048)^2)/(2*(B19*0.3048)^2*COS(RADIANS(E17))^2)))*3.048</f>
-        <v>10.092155146719097</v>
-      </c>
+        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
+        <v>10.091423366187939</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/TrajectoryCalc.xlsx
+++ b/TrajectoryCalc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Robotics\Pre2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Robotics\MechTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA37ED-AA8E-4A07-B341-5BE12D4F9EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1D7420-FC4D-4F21-85DD-E1A5F9ACF28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="2064" windowWidth="17280" windowHeight="9468" activeTab="1" xr2:uid="{6ABD8E07-427F-4B5C-BF84-79A4A7BF8CB3}"/>
   </bookViews>
@@ -34,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
-  <si>
-    <r>
-      <t>y = xtan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>θ - gx</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>velocity (v) =</t>
   </si>
@@ -112,9 +88,6 @@
   </si>
   <si>
     <t>feet/sec</t>
-  </si>
-  <si>
-    <t>or</t>
   </si>
   <si>
     <t>Column1</t>
@@ -191,22 +164,6 @@
     <t>y (feet)</t>
   </si>
   <si>
-    <r>
-      <t>m/sec</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>gearbox ratio =</t>
   </si>
   <si>
@@ -239,10 +196,37 @@
     </r>
   </si>
   <si>
-    <t>Trajectory Calculator With Gears</t>
-  </si>
-  <si>
-    <t>Rev 1.2</t>
+    <r>
+      <t>y = s + xtan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ - gx</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>shooter height =</t>
+  </si>
+  <si>
+    <t>Rev 1.3</t>
+  </si>
+  <si>
+    <t>Trajectory Calculator With Gears And Shooter Height</t>
   </si>
 </sst>
 </file>
@@ -252,7 +236,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -437,7 +421,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +592,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$23</c:f>
+              <c:f>Sheet1!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -631,7 +615,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$B$39</c:f>
+              <c:f>Sheet1!$B$25:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -688,57 +672,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$39</c:f>
+              <c:f>Sheet1!$C$25:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5280981909140099</c:v>
+                  <c:v>5.5189071014785505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6482911485182843</c:v>
+                  <c:v>8.6115267907764466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3605788728128232</c:v>
+                  <c:v>11.277859067893688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.664961363797627</c:v>
+                  <c:v>13.517903932830276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.561438621472696</c:v>
+                  <c:v>15.331661385586209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.050010645838029</c:v>
+                  <c:v>16.719131426161486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.130677436893627</c:v>
+                  <c:v>17.68031405455611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.803438994639489</c:v>
+                  <c:v>18.215209270770082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.068295319075613</c:v>
+                  <c:v>18.323817074803394</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.925246410202011</c:v>
+                  <c:v>18.00613746665606</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.374292268018664</c:v>
+                  <c:v>17.262170446328064</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.415432892525583</c:v>
+                  <c:v>16.091916013819418</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.048668283722769</c:v>
+                  <c:v>14.495374169130116</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.273998441610217</c:v>
+                  <c:v>12.472544912260155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.091423366187939</c:v>
+                  <c:v>10.023428243209551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,13 +1577,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1629,8 +1613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{828D6FDC-FD5E-4572-A62B-6D0992FA8EF2}" name="Table1" displayName="Table1" ref="B23:C39" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="B23:C39" xr:uid="{828D6FDC-FD5E-4572-A62B-6D0992FA8EF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{828D6FDC-FD5E-4572-A62B-6D0992FA8EF2}" name="Table1" displayName="Table1" ref="B24:C40" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B24:C40" xr:uid="{828D6FDC-FD5E-4572-A62B-6D0992FA8EF2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C310C14F-B3FF-4FCF-A5A2-4D910AED7488}" name="Column1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F304FCA2-60A5-43A4-A1F0-14CCCA4D4980}" name="Column2" dataDxfId="0"/>
@@ -1950,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A5312-1A14-4DEA-9131-BA5225CB0B35}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,51 +1953,43 @@
         <v>34</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4">
         <v>32.173999999999999</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
         <f>PI()</f>
@@ -2023,34 +1999,34 @@
     <row r="7" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
         <f xml:space="preserve"> 15</f>
         <v>15</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="10">
         <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2059,24 +2035,24 @@
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="8">
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="18"/>
@@ -2095,30 +2071,30 @@
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3590</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="8">
-        <v>3670</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="I13" s="8">
-        <v>4890</v>
+        <v>4790</v>
       </c>
       <c r="J13" s="8">
-        <v>4210</v>
+        <v>4120</v>
       </c>
       <c r="K13" s="8">
-        <v>3930</v>
+        <v>3845</v>
       </c>
       <c r="L13" s="8">
-        <v>3670</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="11">
         <f>1/1</f>
@@ -2143,13 +2119,13 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="14">
         <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I15" s="14">
         <v>45</v>
@@ -2166,13 +2142,13 @@
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" s="14">
         <v>56</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I16" s="14">
         <v>56</v>
@@ -2189,13 +2165,13 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="8">
         <v>75</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="8">
         <v>75</v>
@@ -2210,192 +2186,216 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="22">
+        <f>(E12/12)*PI()*E13/60* (E15/E16)*E14</f>
+        <v>33.566421507105233</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="22">
-        <f>(E12/12)*PI()*E13/60* (E15/E16)*E14</f>
-        <v>34.314419757959939</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>3.5280981909140099</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>6.6482911485182843</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>5.5189071014785505</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>9.3605788728128232</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>8.6115267907764466</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>11.277859067893688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C28" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>11.664961363797627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
       <c r="C29" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>13.561438621472696</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>13.517903932830276</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>15.050010645838029</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>15.331661385586209</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>16.130677436893627</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>16.719131426161486</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>16.803438994639489</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>17.68031405455611</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>17.068295319075613</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>18.215209270770082</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>16.925246410202011</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>18.323817074803394</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>16.374292268018664</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>18.00613746665606</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>15.415432892525583</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>17.262170446328064</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>14.048668283722769</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>16.091916013819418</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>12.273998441610217</v>
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>14.495374169130116</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6">
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>12.472544912260155</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
         <v>15</v>
       </c>
-      <c r="C39" s="6">
-        <f>(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B19)^2*COS(RADIANS(E17))^2)))</f>
-        <v>10.091423366187939</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F41" s="20"/>
+      <c r="C40" s="6">
+        <f>E18+(Table1[[#This Row],[Column1]]*TAN(RADIANS(E17)) - ((I3*(Table1[[#This Row],[Column1]])^2)/(2*(B20)^2*COS(RADIANS(E17))^2)))</f>
+        <v>10.023428243209551</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G42" s="21"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="19" max="16383" man="1"/>
+    <brk id="20" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <tableParts count="1">
